--- a/relatorios/repasses_liberados/dentistas/11927516471/2023-08-25_relatorio_repasses_11927516471.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11927516471/2023-08-25_relatorio_repasses_11927516471.xlsx
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N233">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/11927516471/2023-08-25_relatorio_repasses_11927516471.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11927516471/2023-08-25_relatorio_repasses_11927516471.xlsx
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>8.540999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1948,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>8.540999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N24">
-        <v>0.051</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N28">
-        <v>0.006</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N42">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2960,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N48">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N49">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N50">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3180,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N51">
-        <v>9.504</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3400,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N56">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4588,10 +4588,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5336,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5468,10 +5468,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5512,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N105">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5600,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N106">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5644,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N107">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5688,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N108">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6348,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6480,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6524,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N127">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6568,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N128">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
-        <v>5.97</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7448,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N148">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7624,10 +7624,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N152">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8592,10 +8592,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N174">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8856,10 +8856,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N180">
-        <v>5.184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N181">
-        <v>9.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9032,10 +9032,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9076,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N185">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -10528,10 +10528,10 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N218">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10660,10 +10660,10 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N221">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10792,10 +10792,10 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N224">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -10836,10 +10836,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N225">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -10880,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N226">
-        <v>7.898999999999999</v>
+        <v>10.532</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -16424,10 +16424,10 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N352">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -16600,10 +16600,10 @@
         <v>0</v>
       </c>
       <c r="M356">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N356">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -17172,10 +17172,10 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N369">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -17348,10 +17348,10 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N373">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -17788,10 +17788,10 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N383">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -18668,10 +18668,10 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N403">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -19416,10 +19416,10 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N420">
-        <v>3.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -19460,10 +19460,10 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N421">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:14">
@@ -19504,10 +19504,10 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N422">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -19548,10 +19548,10 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -19592,10 +19592,10 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N424">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -19680,10 +19680,10 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N426">
-        <v>6.75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -19944,10 +19944,10 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N432">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:14">
@@ -19988,10 +19988,10 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N433">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -20032,10 +20032,10 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N434">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="435" spans="1:14">
